--- a/ВОЛС/Data processing/лаб2 волс.xlsx
+++ b/ВОЛС/Data processing/лаб2 волс.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Study\Study\ВОЛС\Data processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2657D36-F920-4559-99CE-25B2603F438E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF981CB7-3EBD-4C49-8DB9-486E809951B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Исправленные измерения" sheetId="3" r:id="rId2"/>
+    <sheet name="Задание 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Исправленные измерения 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t>Тип адаптера</t>
   </si>
@@ -100,11 +102,29 @@
   <si>
     <t>uW</t>
   </si>
+  <si>
+    <t>FC-FC SM красный автомат</t>
+  </si>
+  <si>
+    <t>FC-FC SM белый автомат</t>
+  </si>
+  <si>
+    <t>FC-FC SM красный</t>
+  </si>
+  <si>
+    <t>mW</t>
+  </si>
+  <si>
+    <t>Пересчет</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,20 +172,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -194,9 +205,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -212,6 +233,1179 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Потери в ВОК в макроизгибах</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1310 нм</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Исправленные измерения 2'!$I$3:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8571428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Исправленные измерения 2'!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B50-4C96-8292-237BD8701612}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1550 нм</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Исправленные измерения 2'!$G$4:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5B50-4C96-8292-237BD8701612}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="483861968"/>
+        <c:axId val="483861136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="483861968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>/R</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> 1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>/c</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>м</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483861136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="483861136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Потери, дБ</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483861968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>59895</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>386904</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121186</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E26DD7-3AC9-4F32-9A61-D8FDA984700A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,7 +1674,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F6" sqref="A1:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -497,16 +1691,16 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="7"/>
@@ -518,250 +1712,254 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>1310</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>0.33700000000000002</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>932</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>1550</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>0.17199999999999999</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>1310</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>0.32100000000000001</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>1550</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>0.221</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>-0.439</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>899</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>1310</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>-25.2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>-25.7</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>2.65</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>1550</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>-23.89</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>-24.56</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>3.49</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>1310</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>-23.23</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>1550</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>-23.88</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="5">
         <v>1310</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <v>0.12</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>-0.46</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <v>906</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="5">
         <v>1550</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="5">
         <v>1310</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="5">
         <v>1550</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>0.05</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="5">
         <v>872</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="5">
         <v>1310</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <v>-1.58</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <v>-2.1</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="5">
         <v>1550</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <v>-1.19</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="5">
         <v>-1.86</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="5">
         <v>650</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="5">
         <v>1310</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <v>-1.57</v>
       </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="R17" s="9"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="5">
         <v>1550</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="5">
         <v>-1.2190000000000001</v>
       </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -773,11 +1971,418 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA96BDB-4965-444C-AD6E-920629369A70}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="15.5546875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1310</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D2" s="4">
+        <f>C2+30</f>
+        <v>30.337</v>
+      </c>
+      <c r="E2" s="4">
+        <f xml:space="preserve"> 932 * 0.001</f>
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1550</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D13" si="0">C3+30</f>
+        <v>30.172000000000001</v>
+      </c>
+      <c r="E3" s="13">
+        <f>10^(D3/10) * 0.001</f>
+        <v>1.0403991770513523</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1310</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>30.321000000000002</v>
+      </c>
+      <c r="E4" s="13">
+        <f>10^(D4/10) * 0.001</f>
+        <v>1.0767131074439737</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1550</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.221</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>30.221</v>
+      </c>
+      <c r="E5" s="13">
+        <f>10^(D5/10) * 0.001</f>
+        <v>1.0522041248852443</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1310</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-25.2</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" ref="E6:E13" si="1">10^(D6/10) * 0.001</f>
+        <v>3.019951720402017E-3</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1550</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-23.89</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>6.1099999999999994</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="1"/>
+        <v>4.0831938633269218E-3</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1310</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-23.23</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>6.77</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="1"/>
+        <v>4.7533522594280534E-3</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1550</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-23.88</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>6.120000000000001</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="1"/>
+        <v>4.0926065973001108E-3</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1310</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>30.12</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0280162981264747</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1550</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>30.135000000000002</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0315730794395124</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1310</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>30.036000000000001</v>
+      </c>
+      <c r="E12" s="13">
+        <f>10^(D12/10) * 0.001</f>
+        <v>1.0083237577615518</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1550</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>30.05</v>
+      </c>
+      <c r="E13" s="13">
+        <f>10^(D13/10) * 0.001</f>
+        <v>1.011579454259899</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1310</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-1.58</v>
+      </c>
+      <c r="D15" s="4">
+        <f>C15+30</f>
+        <v>28.42</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1550</v>
+      </c>
+      <c r="C16" s="4">
+        <v>-1.19</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" ref="D16:D18" si="2">C16+30</f>
+        <v>28.81</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1310</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-1.57</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="2"/>
+        <v>28.43</v>
+      </c>
+      <c r="E17" s="13">
+        <f>10^(D17/10) * 0.001</f>
+        <v>0.69662651411076926</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1550</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-1.2190000000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="2"/>
+        <v>28.780999999999999</v>
+      </c>
+      <c r="E18" s="13">
+        <f>10^(D18/10) * 0.001</f>
+        <v>0.75526611409480682</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9BA7AB-D520-4405-A50A-5FEEB738E918}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -788,33 +2393,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1092,4 +2697,436 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB18F40E-1A15-4D46-ADC6-175F9A0B7556}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="104" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="14">
+        <f>1/A4</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4">
+        <f>D4+30</f>
+        <v>30.4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>958</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="4">
+        <f>G4+30</f>
+        <v>30.234999999999999</v>
+      </c>
+      <c r="F4" s="4">
+        <v>907</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="I4" s="14">
+        <f t="shared" ref="I4:I12" si="0">1/A5</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <f>A4-5</f>
+        <v>35</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" ref="B5:B13" si="1">D5+30</f>
+        <v>30.428000000000001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>963</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:E13" si="2">G5+30</f>
+        <v>30.257999999999999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>909</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="I5" s="14">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <f t="shared" ref="A6:A9" si="3">A5-5</f>
+        <v>30</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" si="1"/>
+        <v>30.423999999999999</v>
+      </c>
+      <c r="C6" s="4">
+        <v>962</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="2"/>
+        <v>30.248000000000001</v>
+      </c>
+      <c r="F6" s="4">
+        <v>905</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.248</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="1"/>
+        <v>30.419</v>
+      </c>
+      <c r="C7" s="4">
+        <v>961</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="2"/>
+        <v>30.231999999999999</v>
+      </c>
+      <c r="F7" s="4">
+        <v>901</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="1"/>
+        <v>30.417000000000002</v>
+      </c>
+      <c r="C8" s="4">
+        <v>960</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="2"/>
+        <v>30.222000000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>900</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.222</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="1"/>
+        <v>30.411999999999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>959</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="2"/>
+        <v>30.204999999999998</v>
+      </c>
+      <c r="F9" s="4">
+        <v>899</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <f>A9-2.5</f>
+        <v>12.5</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="1"/>
+        <v>30.408999999999999</v>
+      </c>
+      <c r="C10" s="4">
+        <v>958</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="2"/>
+        <v>30.193000000000001</v>
+      </c>
+      <c r="F10" s="4">
+        <v>897</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <f t="shared" ref="A11:A13" si="4">A10-2.5</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="1"/>
+        <v>30.402999999999999</v>
+      </c>
+      <c r="C11" s="4">
+        <v>957</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="2"/>
+        <v>30.175000000000001</v>
+      </c>
+      <c r="F11" s="4">
+        <v>872</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="1"/>
+        <v>30.366</v>
+      </c>
+      <c r="C12" s="4">
+        <v>949</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="2"/>
+        <v>30.163</v>
+      </c>
+      <c r="F12" s="4">
+        <v>777</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="1"/>
+        <v>30.141999999999999</v>
+      </c>
+      <c r="C13" s="4">
+        <v>850</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="2"/>
+        <v>24.5</v>
+      </c>
+      <c r="F13" s="4">
+        <v>354</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-5.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{F6780101-CBEC-4D34-99D8-6DDB8B83F73C}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Исправленные измерения 2'!D4:D4</xm:f>
+              <xm:sqref>I3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Исправленные измерения 2'!D5:D5</xm:f>
+              <xm:sqref>I4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Исправленные измерения 2'!D6:D6</xm:f>
+              <xm:sqref>I5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Исправленные измерения 2'!D7:D7</xm:f>
+              <xm:sqref>I6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Исправленные измерения 2'!D8:D8</xm:f>
+              <xm:sqref>I7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Исправленные измерения 2'!D9:D9</xm:f>
+              <xm:sqref>I8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Исправленные измерения 2'!D10:D10</xm:f>
+              <xm:sqref>I9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Исправленные измерения 2'!D11:D11</xm:f>
+              <xm:sqref>I10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Исправленные измерения 2'!D12:D12</xm:f>
+              <xm:sqref>I11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Исправленные измерения 2'!D13:D13</xm:f>
+              <xm:sqref>I12</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/ВОЛС/Data processing/лаб2 волс.xlsx
+++ b/ВОЛС/Data processing/лаб2 волс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Study\Study\ВОЛС\Data processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF981CB7-3EBD-4C49-8DB9-486E809951B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A791ACA-21FA-44A2-9752-2249B5AA10F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Тип адаптера</t>
   </si>
@@ -117,13 +117,16 @@
   <si>
     <t>Пересчет</t>
   </si>
+  <si>
+    <t>Наклон кривых</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -176,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -208,16 +211,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -328,6 +335,20 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'Исправленные измерения 2'!$I$3:$I$13</c:f>
@@ -369,44 +390,50 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Исправленные измерения 2'!$D$4:$D$13</c:f>
+              <c:f>'Исправленные измерения 2'!$Q$2:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.90614980223199737</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42799999999999999</c:v>
+                  <c:v>0.90698478150579254</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42399999999999999</c:v>
+                  <c:v>0.908029587647883</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41899999999999998</c:v>
+                  <c:v>0.90844784702677528</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41699999999999998</c:v>
+                  <c:v>0.90949433855529538</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41199999999999998</c:v>
+                  <c:v>0.91012281202918843</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40899999999999997</c:v>
+                  <c:v>0.91138106212929559</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.40300000000000002</c:v>
+                  <c:v>0.91917880169449118</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.36599999999999999</c:v>
+                  <c:v>0.96783205048816001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14199999999999999</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5B50-4C96-8292-237BD8701612}"/>
@@ -431,41 +458,132 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>'Исправленные измерения 2'!$G$4:$G$13</c:f>
+              <c:f>'Исправленные измерения 2'!$R$3:$R$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.23499999999999999</c:v>
+                  <c:v>0.94232345260306816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25800000000000001</c:v>
+                  <c:v>0.94449573250770658</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.248</c:v>
+                  <c:v>0.94798180101071883</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23200000000000001</c:v>
+                  <c:v>0.95016712475556464</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.222</c:v>
+                  <c:v>0.95389374284154504</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20499999999999999</c:v>
+                  <c:v>0.95653309337491366</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.193</c:v>
+                  <c:v>0.95829671630637503</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>0.96316346402398056</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16300000000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5.5</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5B50-4C96-8292-237BD8701612}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Линия тренда 1330 нм</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Исправленные измерения 2'!$K$2:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36599999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,7 +591,84 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5B50-4C96-8292-237BD8701612}"/>
+              <c16:uniqueId val="{00000006-A289-42FB-BCF5-2261BE67786E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Линия тренда 1550</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Исправленные измерения 2'!$M$2:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A289-42FB-BCF5-2261BE67786E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -525,21 +720,16 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>,</a:t>
+                  <a:t>, 1</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> 1</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>/c</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:rPr lang="ru-RU"/>
                   <a:t>м</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -620,7 +810,8 @@
         <c:axId val="483861136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:max val="1.05"/>
+          <c:min val="0.9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -737,7 +928,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1372,15 +1563,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>59895</xdr:colOff>
+      <xdr:colOff>162473</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>152257</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>386904</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>121186</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>337038</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1892,13 +2083,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1980,10 +2171,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="15.5546875" style="12"/>
+    <col min="1" max="16384" width="15.5546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2043,7 +2234,7 @@
         <f t="shared" ref="D3:D13" si="0">C3+30</f>
         <v>30.172000000000001</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <f>10^(D3/10) * 0.001</f>
         <v>1.0403991770513523</v>
       </c>
@@ -2065,7 +2256,7 @@
         <f t="shared" si="0"/>
         <v>30.321000000000002</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <f>10^(D4/10) * 0.001</f>
         <v>1.0767131074439737</v>
       </c>
@@ -2087,7 +2278,7 @@
         <f t="shared" si="0"/>
         <v>30.221</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <f>10^(D5/10) * 0.001</f>
         <v>1.0522041248852443</v>
       </c>
@@ -2109,8 +2300,8 @@
         <f t="shared" si="0"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="E6" s="13">
-        <f t="shared" ref="E6:E13" si="1">10^(D6/10) * 0.001</f>
+      <c r="E6" s="12">
+        <f t="shared" ref="E6:E11" si="1">10^(D6/10) * 0.001</f>
         <v>3.019951720402017E-3</v>
       </c>
       <c r="F6" s="1"/>
@@ -2131,7 +2322,7 @@
         <f t="shared" si="0"/>
         <v>6.1099999999999994</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <f t="shared" si="1"/>
         <v>4.0831938633269218E-3</v>
       </c>
@@ -2153,7 +2344,7 @@
         <f t="shared" si="0"/>
         <v>6.77</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <f t="shared" si="1"/>
         <v>4.7533522594280534E-3</v>
       </c>
@@ -2175,7 +2366,7 @@
         <f t="shared" si="0"/>
         <v>6.120000000000001</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <f t="shared" si="1"/>
         <v>4.0926065973001108E-3</v>
       </c>
@@ -2197,7 +2388,7 @@
         <f t="shared" si="0"/>
         <v>30.12</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <f t="shared" si="1"/>
         <v>1.0280162981264747</v>
       </c>
@@ -2219,7 +2410,7 @@
         <f t="shared" si="0"/>
         <v>30.135000000000002</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <f t="shared" si="1"/>
         <v>1.0315730794395124</v>
       </c>
@@ -2241,7 +2432,7 @@
         <f t="shared" si="0"/>
         <v>30.036000000000001</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <f>10^(D12/10) * 0.001</f>
         <v>1.0083237577615518</v>
       </c>
@@ -2263,7 +2454,7 @@
         <f t="shared" si="0"/>
         <v>30.05</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <f>10^(D13/10) * 0.001</f>
         <v>1.011579454259899</v>
       </c>
@@ -2272,13 +2463,13 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -2339,7 +2530,7 @@
         <f t="shared" si="2"/>
         <v>28.43</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <f>10^(D17/10) * 0.001</f>
         <v>0.69662651411076926</v>
       </c>
@@ -2361,7 +2552,7 @@
         <f t="shared" si="2"/>
         <v>28.780999999999999</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <f>10^(D18/10) * 0.001</f>
         <v>0.75526611409480682</v>
       </c>
@@ -2393,33 +2584,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -2701,48 +2892,83 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB18F40E-1A15-4D46-ADC6-175F9A0B7556}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="104" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
       <c r="I1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1">
+        <v>1330</v>
+      </c>
+      <c r="R1">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="K2" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="M2" s="10">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="O2" s="16">
+        <f>TAN(D5-D4)</f>
+        <v>2.8007319628777456E-2</v>
+      </c>
+      <c r="Q2">
+        <f>10^(-D5/10)</f>
+        <v>0.90614980223199737</v>
+      </c>
+      <c r="R2">
+        <f>10^(-G4/10)</f>
+        <v>0.94732718450424969</v>
+      </c>
+      <c r="S2">
+        <v>1550</v>
+      </c>
+      <c r="T2">
+        <f>TAN(R2-R3)</f>
+        <v>5.0037736616336068E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
@@ -2761,12 +2987,37 @@
       <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <f>1/A4</f>
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K3" s="10">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="O3" s="13">
+        <f>TAN(G5-G6)</f>
+        <v>1.0000333346667216E-2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q13" si="0">10^(-D6/10)</f>
+        <v>0.90698478150579254</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R13" si="1">10^(-G5/10)</f>
+        <v>0.94232345260306816</v>
+      </c>
+      <c r="S3">
+        <v>1330</v>
+      </c>
+      <c r="T3">
+        <f>TAN(Q3-Q2)</f>
+        <v>8.349794678417287E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>40</v>
       </c>
@@ -2790,18 +3041,32 @@
       <c r="G4" s="4">
         <v>0.23499999999999999</v>
       </c>
-      <c r="I4" s="14">
-        <f t="shared" ref="I4:I12" si="0">1/A5</f>
+      <c r="I4" s="13">
+        <f t="shared" ref="I4:I12" si="2">1/A5</f>
         <v>2.8571428571428571E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K4" s="10">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0.248</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0.908029587647883</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>0.94449573250770658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f>A4-5</f>
         <v>35</v>
       </c>
       <c r="B5" s="4">
-        <f t="shared" ref="B5:B13" si="1">D5+30</f>
+        <f t="shared" ref="B5:B13" si="3">D5+30</f>
         <v>30.428000000000001</v>
       </c>
       <c r="C5" s="4">
@@ -2811,7 +3076,7 @@
         <v>0.42799999999999999</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:E13" si="2">G5+30</f>
+        <f t="shared" ref="E5:E13" si="4">G5+30</f>
         <v>30.257999999999999</v>
       </c>
       <c r="F5" s="4">
@@ -2820,18 +3085,32 @@
       <c r="G5" s="4">
         <v>0.25800000000000001</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.90844784702677528</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>0.94798180101071883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A9" si="3">A5-5</f>
+        <f t="shared" ref="A6:A9" si="5">A5-5</f>
         <v>30</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30.423999999999999</v>
       </c>
       <c r="C6" s="4">
@@ -2841,7 +3120,7 @@
         <v>0.42399999999999999</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30.248000000000001</v>
       </c>
       <c r="F6" s="4">
@@ -2850,18 +3129,32 @@
       <c r="G6" s="4">
         <v>0.248</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0.222</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="0"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.90949433855529538</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>0.95016712475556464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="B7" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="B7" s="4">
-        <f t="shared" si="1"/>
         <v>30.419</v>
       </c>
       <c r="C7" s="4">
@@ -2871,7 +3164,7 @@
         <v>0.41899999999999998</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30.231999999999999</v>
       </c>
       <c r="F7" s="4">
@@ -2880,18 +3173,32 @@
       <c r="G7" s="4">
         <v>0.23200000000000001</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="13">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.91012281202918843</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>0.95389374284154504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="B8" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="B8" s="4">
-        <f t="shared" si="1"/>
         <v>30.417000000000002</v>
       </c>
       <c r="C8" s="4">
@@ -2901,7 +3208,7 @@
         <v>0.41699999999999998</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30.222000000000001</v>
       </c>
       <c r="F8" s="4">
@@ -2910,18 +3217,32 @@
       <c r="G8" s="4">
         <v>0.222</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0.193</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.91138106212929559</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>0.95653309337491366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
-        <f t="shared" si="1"/>
         <v>30.411999999999999</v>
       </c>
       <c r="C9" s="4">
@@ -2931,7 +3252,7 @@
         <v>0.41199999999999998</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30.204999999999998</v>
       </c>
       <c r="F9" s="4">
@@ -2940,18 +3261,32 @@
       <c r="G9" s="4">
         <v>0.20499999999999999</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0.185</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="0"/>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.91917880169449118</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>0.95829671630637503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f>A9-2.5</f>
         <v>12.5</v>
       </c>
       <c r="B10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30.408999999999999</v>
       </c>
       <c r="C10" s="4">
@@ -2961,7 +3296,7 @@
         <v>0.40899999999999997</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30.193000000000001</v>
       </c>
       <c r="F10" s="4">
@@ -2970,18 +3305,32 @@
       <c r="G10" s="4">
         <v>0.193</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.96783205048816001</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>0.96316346402398056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <f t="shared" ref="A11:A13" si="4">A10-2.5</f>
+        <f t="shared" ref="A11:A13" si="6">A10-2.5</f>
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30.402999999999999</v>
       </c>
       <c r="C11" s="4">
@@ -2991,27 +3340,34 @@
         <v>0.40300000000000002</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="2"/>
-        <v>30.175000000000001</v>
+        <f t="shared" si="4"/>
+        <v>30.184999999999999</v>
       </c>
       <c r="F11" s="4">
         <v>872</v>
       </c>
       <c r="G11" s="4">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="I11" s="14">
+        <v>0.185</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="2"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
       <c r="B12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30.366</v>
       </c>
       <c r="C12" s="4">
@@ -3021,7 +3377,7 @@
         <v>0.36599999999999999</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30.163</v>
       </c>
       <c r="F12" s="4">
@@ -3030,18 +3386,26 @@
       <c r="G12" s="4">
         <v>0.16300000000000001</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30.141999999999999</v>
       </c>
       <c r="C13" s="4">
@@ -3051,7 +3415,7 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24.5</v>
       </c>
       <c r="F13" s="4">
@@ -3059,6 +3423,14 @@
       </c>
       <c r="G13" s="4">
         <v>-5.5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ВОЛС/Data processing/лаб2 волс.xlsx
+++ b/ВОЛС/Data processing/лаб2 волс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Study\Study\ВОЛС\Data processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A791ACA-21FA-44A2-9752-2249B5AA10F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2749BE-3596-48EC-9816-68F319DE8ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
   <si>
     <t>Тип адаптера</t>
   </si>
@@ -118,7 +118,16 @@
     <t>Пересчет</t>
   </si>
   <si>
-    <t>Наклон кривых</t>
+    <t>1330 нм</t>
+  </si>
+  <si>
+    <t>1550 нм</t>
+  </si>
+  <si>
+    <t>Наклон кривых, tan</t>
+  </si>
+  <si>
+    <t>Угол</t>
   </si>
 </sst>
 </file>
@@ -224,7 +233,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -335,20 +346,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'Исправленные измерения 2'!$I$3:$I$13</c:f>
@@ -458,20 +455,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>'Исправленные измерения 2'!$R$3:$R$12</c:f>
@@ -538,20 +521,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>'Исправленные измерения 2'!$K$2:$K$10</c:f>
@@ -615,6 +584,137 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Исправленные измерения 2'!$M$2:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A289-42FB-BCF5-2261BE67786E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="0"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Исправленные измерения 2'!$Q$2:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.90614980223199737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90698478150579254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.908029587647883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90844784702677528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90949433855529538</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91012281202918843</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91138106212929559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91917880169449118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-FE56-48A4-A86B-8C5620BD4308}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="2000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -631,36 +731,36 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>'Исправленные измерения 2'!$M$2:$M$10</c:f>
+              <c:f>'Исправленные измерения 2'!$R$2:$R$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.23499999999999999</c:v>
+                  <c:v>0.94732718450424969</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25800000000000001</c:v>
+                  <c:v>0.94232345260306816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.248</c:v>
+                  <c:v>0.94449573250770658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23200000000000001</c:v>
+                  <c:v>0.94798180101071883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.222</c:v>
+                  <c:v>0.95016712475556464</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20499999999999999</c:v>
+                  <c:v>0.95389374284154504</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.193</c:v>
+                  <c:v>0.95653309337491366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.185</c:v>
+                  <c:v>0.95829671630637503</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16300000000000001</c:v>
+                  <c:v>0.96316346402398056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,7 +768,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-A289-42FB-BCF5-2261BE67786E}"/>
+              <c16:uniqueId val="{0000000E-FE56-48A4-A86B-8C5620BD4308}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -929,6 +1029,30 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2894,8 +3018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB18F40E-1A15-4D46-ADC6-175F9A0B7556}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2920,7 +3044,10 @@
         <v>26</v>
       </c>
       <c r="O1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
       </c>
       <c r="Q1">
         <v>1330</v>
@@ -2947,9 +3074,16 @@
       <c r="M2" s="10">
         <v>0.23499999999999999</v>
       </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
       <c r="O2" s="16">
-        <f>TAN(D5-D4)</f>
-        <v>2.8007319628777456E-2</v>
+        <f>TAN((I4-I3)/B5-B4)</f>
+        <v>1.6137798386304574</v>
+      </c>
+      <c r="P2">
+        <f>ATAN(O2)</f>
+        <v>1.0160439089941431</v>
       </c>
       <c r="Q2">
         <f>10^(-D5/10)</f>
@@ -2997,9 +3131,16 @@
       <c r="M3" s="10">
         <v>0.25800000000000001</v>
       </c>
-      <c r="O3" s="13">
-        <f>TAN(G5-G6)</f>
-        <v>1.0000333346667216E-2</v>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="16">
+        <f>-TAN((I8-I7)/(E9-E8))</f>
+        <v>1.492222910094553</v>
+      </c>
+      <c r="P3">
+        <f>ATAN(O3)</f>
+        <v>0.98039215686257108</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q13" si="0">10^(-D6/10)</f>

--- a/ВОЛС/Data processing/лаб2 волс.xlsx
+++ b/ВОЛС/Data processing/лаб2 волс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Study\Study\ВОЛС\Data processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2749BE-3596-48EC-9816-68F319DE8ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1F2306-06A5-48C9-BC36-9A73BA6300D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,14 +227,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -332,7 +332,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1310 нм</c:v>
+            <c:v>1330 нм</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -387,10 +387,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Исправленные измерения 2'!$Q$2:$Q$13</c:f>
+              <c:f>'Исправленные измерения 2'!$Q$2:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.90614980223199737</c:v>
                 </c:pt>
@@ -419,12 +419,6 @@
                   <c:v>0.96783205048816001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -791,6 +785,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -910,7 +918,7 @@
         <c:axId val="483861136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.05"/>
+          <c:max val="1.01"/>
           <c:min val="0.9"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -950,8 +958,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Потери, дБ</a:t>
+                  <a:t>Абсолютные</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> потери</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2207,13 +2220,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -2587,13 +2600,13 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -2708,33 +2721,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -3019,7 +3032,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3029,17 +3042,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
       <c r="I1" t="s">
         <v>26</v>
       </c>
@@ -3057,17 +3070,17 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="K2" s="10">
         <v>0.4</v>
       </c>
@@ -3077,7 +3090,7 @@
       <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="14">
         <f>TAN((I4-I3)/B5-B4)</f>
         <v>1.6137798386304574</v>
       </c>
@@ -3102,7 +3115,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
@@ -3134,7 +3147,7 @@
       <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="14">
         <f>-TAN((I8-I7)/(E9-E8))</f>
         <v>1.492222910094553</v>
       </c>

--- a/ВОЛС/Data processing/лаб2 волс.xlsx
+++ b/ВОЛС/Data processing/лаб2 волс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Study\Study\ВОЛС\Data processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1F2306-06A5-48C9-BC36-9A73BA6300D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0807F4-6F86-463A-931B-F1954DB6ED06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
@@ -2001,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="A1:H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3031,7 +3031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB18F40E-1A15-4D46-ADC6-175F9A0B7556}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
